--- a/quest_titles.xlsx
+++ b/quest_titles.xlsx
@@ -20,18 +20,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">filename</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t xml:space="preserve">xml_file</t>
   </si>
   <si>
     <t xml:space="preserve">new_title</t>
   </si>
   <si>
-    <t xml:space="preserve">01_Farm4_BuildWorkbench.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe</t>
+    <t xml:space="preserve">89_Farm4_RemoveTree.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90_Farm4_ClearLaboratorySpace.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91_Farm4_CollectAloe.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_Farm4_BuildLaboratory.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93_Farm4_StartCraftReagent.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94_Farm4_ClearMapPath.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95_Farm4_BuildMap.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96_Farm4_ClearLibraryPath.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97_Farm4_BuildLibrary.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98_Farm4_ClearBridgePath.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99_Farm4_BuildBridgeZF5.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100_Farm4_FindLabNotes.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101_Farm4_ClearDoghouseSpace.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102_Farm4_BuildDoghoulse.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103_Farm4_BuildDogPark.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104_Farm4_CollectOpunita.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_Farm4_StartCrafJam.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106_Farm4_ClearPoundSpace.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107_Farm4_BuildPound.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108_Farm4_ClearMountainPath.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109_Farm4_CollectClay.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110_Farm4_StartCraftSprayer.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111_Farm4_ClearBlockerZF6.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112_Farm4_CollectCoal.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113_Farm4_StartCraftResperator.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114_Farm4_CollectEdelweiss.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115_Farm4_ClearDomeSpace.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116_Farm4_BuildDome.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117_Farm4_CleanTrainingCamp.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118_Farm4_BuildTrainingCamp.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119_Farm4_BuildSuitsCloset.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120_Farm4_StartCraftBiohazardSuit.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_Farm4_SprayAntidote.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm4_quest121</t>
   </si>
 </sst>
 </file>
@@ -113,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,16 +314,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -155,41 +355,296 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/quest_titles.xlsx
+++ b/quest_titles.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">xml_file</t>
   </si>
   <si>
     <t xml:space="preserve">new_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_Farm4_BuildWorkbench.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTME!!!</t>
   </si>
   <si>
     <t xml:space="preserve">89_Farm4_RemoveTree.xml</t>
@@ -305,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,10 +330,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -358,7 +360,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,273 +380,279 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
